--- a/data/trans_dic/P5_4-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P5_4-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -497,7 +498,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -521,7 +522,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que disfruta de terraza en su vivienda</t>
+          <t>Población que disfruta de terraza en su vivienda (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -601,32 +602,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>35,59%</t>
+          <t>34,46%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>42,2%</t>
+          <t>37,22%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>35,79%</t>
+          <t>36,0%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>37,58%</t>
+          <t>37,06%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>35,7%</t>
+          <t>35,28%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>39,73%</t>
+          <t>37,13%</t>
         </is>
       </c>
     </row>
@@ -639,32 +640,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>25,1; 45,32</t>
+          <t>17,56; 51,88</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>29,54; 57,15</t>
+          <t>17,19; 54,78</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>26,17; 45,4</t>
+          <t>23,29; 49,98</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>27,56; 48,04</t>
+          <t>23,56; 51,37</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>28,9; 42,53</t>
+          <t>24,79; 46,8</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>31,83; 48,93</t>
+          <t>24,74; 48,77</t>
         </is>
       </c>
     </row>
@@ -681,32 +682,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>38,6%</t>
+          <t>38,48%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>38,72%</t>
+          <t>38,68%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>38,93%</t>
+          <t>39,8%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>39,79%</t>
+          <t>39,74%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>38,77%</t>
+          <t>39,16%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>39,28%</t>
+          <t>39,23%</t>
         </is>
       </c>
     </row>
@@ -719,32 +720,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>32,86; 45,21</t>
+          <t>29,73; 47,06</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>32,07; 45,77</t>
+          <t>29,65; 47,3</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>33,48; 44,07</t>
+          <t>32,69; 46,87</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>34,19; 45,15</t>
+          <t>32,68; 46,66</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>34,53; 42,62</t>
+          <t>33,88; 44,62</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>34,92; 43,86</t>
+          <t>33,91; 44,88</t>
         </is>
       </c>
     </row>
@@ -761,32 +762,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>48,88%</t>
+          <t>42,06%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>49,24%</t>
+          <t>42,15%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>37,1%</t>
+          <t>36,92%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>36,08%</t>
+          <t>35,24%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>42,54%</t>
+          <t>39,19%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>42,14%</t>
+          <t>38,26%</t>
         </is>
       </c>
     </row>
@@ -799,39 +800,39 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>41,51; 55,8</t>
+          <t>33,58; 51,88</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>41,72; 56,91</t>
+          <t>33,33; 51,73</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>30,84; 43,18</t>
+          <t>29,54; 44,68</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>30,0; 42,57</t>
+          <t>27,93; 42,79</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>37,63; 47,0</t>
+          <t>33,46; 45,51</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>37,26; 46,78</t>
+          <t>32,55; 44,34</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -841,32 +842,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>41,6%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>42,81%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>37,73%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>38,11%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>39,54%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>40,33%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -879,46 +880,844 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>37,28; 46,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>38,07; 48,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>33,61; 41,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>34,4; 41,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>36,45; 42,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>37,31; 43,7</t>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>39,29%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>39,76%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>38,09%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>37,51%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>38,65%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>38,55%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>34,05; 45,9</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>33,9; 46,5</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>33,68; 43,2</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>33,04; 42,65</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>34,86; 42,44</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>34,93; 42,17</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que disfruta de terraza en su vivienda (tasa de respuesta: 100,0%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>35610</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>47966</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>42405</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>52799</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>78015</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>100764</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>18145; 53617</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>22152; 70601</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>27431; 58876</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>33571; 73189</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>54817; 103503</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>67122; 132344</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>73.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>134.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>135.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>140854</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>166103</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>155475</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>184577</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>296329</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>350680</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>108805; 172244</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>127360; 203153</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>127691; 183099</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>151807; 216728</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>256333; 337593</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>303115; 401176</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>64.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>118.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>116.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>120253</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>140330</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>132758</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>150972</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>253011</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>291302</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>96005; 148340</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>110951; 172205</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>106241; 160688</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>119643; 183310</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>215978; 293795</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>247822; 337595</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>131.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>133.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>153.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>152.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>284.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>285.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>296717</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>354398</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>330638</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>388348</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>627355</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>742746</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>257135; 346663</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>302142; 414444</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>292349; 374975</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>342101; 441554</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>565889; 688936</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>672993; 812464</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>